--- a/data/trans_camb/P25_5-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_5-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>3,43</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,94</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 8,51</t>
+          <t>-10,99; 11,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 7,87</t>
+          <t>-11,45; 10,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 3,9</t>
+          <t>-12,41; 8,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 6,24</t>
+          <t>-18,68; 9,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 3,38</t>
+          <t>-17,96; 10,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 4,32</t>
+          <t>-12,4; 29,34</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-11,61; 7,01</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-12,16; 7,75</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,38; 22,88</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>-1,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,35%</t>
+          <t>-12,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-38,76%</t>
+          <t>-24,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-16,17%</t>
+          <t>-26,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-22,73%</t>
+          <t>-20,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,86%</t>
+          <t>22,72%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-20,24%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-18,59%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14,41%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,2; 302,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-79,03; 329,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-78,06; 69,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-66,02; 82,32</t>
+          <t>-84,37; 155,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,97; 57,35</t>
+          <t>-79,74; 168,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,78; 64,73</t>
+          <t>-75,47; 425,32</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-78,46; 139,96</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-75,8; 167,45</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-70,82; 463,31</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,95</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 6,16</t>
+          <t>-5,83; 4,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 5,37</t>
+          <t>-3,95; 8,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 1,04</t>
+          <t>-4,82; 6,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 5,24</t>
+          <t>-8,4; 1,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 2,55</t>
+          <t>-7,02; 3,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 3,56</t>
+          <t>-5,98; 5,21</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,36; 1,82</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 4,55</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 4,29</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>-9,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>43,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-39,48%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,44%</t>
+          <t>-43,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,44%</t>
+          <t>-19,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>-1,01%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-30,11%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6,0%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,67; 154,9</t>
+          <t>-75,72; 156,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,72; 157,7</t>
+          <t>-56,0; 291,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-70,06; 32,35</t>
+          <t>-65,76; 228,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,18; 126,9</t>
+          <t>-79,44; 38,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,48; 58,82</t>
+          <t>-67,65; 70,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,92; 83,85</t>
+          <t>-57,38; 106,41</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-65,23; 39,47</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-45,3; 88,39</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-41,99; 96,25</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 2,53</t>
+          <t>-13,7; 5,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 8,44</t>
+          <t>-8,34; 13,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 5,83</t>
+          <t>-10,11; 10,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 6,1</t>
+          <t>-5,97; 5,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 3,04</t>
+          <t>-5,6; 5,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 5,17</t>
+          <t>-4,28; 9,06</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,51; 3,6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 6,84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 8,01</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-35,43%</t>
+          <t>-23,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,86%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>23,56%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-12,12%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16,74%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>20,71%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-75,07; 52,01</t>
+          <t>-78,72; 108,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,09; 143,99</t>
+          <t>-57,45; 240,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,75; 147,84</t>
+          <t>-66,82; 212,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,76; 152,26</t>
+          <t>-60,81; 131,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,32; 61,6</t>
+          <t>-60,84; 146,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,31; 99,33</t>
+          <t>-52,99; 222,47</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-55,4; 71,46</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-40,52; 125,29</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-39,97; 138,98</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 2,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 3,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 1,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 3,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 2,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-20,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-13,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,29; 53,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 66,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-50,22; 25,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,46; 63,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,06; 20,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,71; 45,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,92</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,01</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,63; 2,94</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 7,03</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; 5,2</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 1,81</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-5,26; 2,89</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 9,23</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 1,15</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 3,51</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 5,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-16,1%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>27,47%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>8,91%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-24,38%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-12,07%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>20,16%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-20,98%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>14,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-57,81; 71,47</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-37,5; 136,75</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-44,57; 115,13</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-58,25; 32,39</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-49,02; 45,81</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-33,21; 134,22</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-51,07; 19,31</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-33,74; 57,22</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-30,41; 79,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
